--- a/pred_ohlcv/54_21/2020-01-21 BTT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-21 BTT ohlcv.xlsx
@@ -886,7 +886,7 @@
         <v>-33089123.21963208</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-37692262.77413207</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-37973852.95191588</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-50433828.86561588</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-50433828.86561588</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-50433828.86561588</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-51748390.33911588</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-51747140.33911588</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-51814878.72871588</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-51933407.73381588</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-51952471.30911588</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-51952471.30911588</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-51951223.41721588</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-51949973.19421588</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-45910016.79131588</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-45910016.79131588</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-45910016.79131588</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-45865065.95241588</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-43815190.18221588</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-44829953.83621588</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-54403306.65061588</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-54403306.65061588</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-72034046.69485424</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-106598946.6013542</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-106621821.1197542</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>116931664.7492458</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>122120825.5479015</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>122120825.5479015</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>122120825.5479015</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>122116464.6342015</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>122161439.2450015</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>122172393.6253015</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>122134901.8071015</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>122134901.8071015</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>122135029.3032015</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>122136469.9913015</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>119661810.9764015</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>119013208.3559897</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>119133208.3559897</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>113919005.4028897</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>112170148.7742897</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>110396226.8630897</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>106706086.0088897</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>106618780.9260897</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>106606451.9780897</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>106599473.8554897</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-21 BTT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-21 BTT ohlcv.xlsx
@@ -730,7 +730,7 @@
         <v>-32716716.16282984</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-32716716.16282984</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-33089123.21963208</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-32060744.98111588</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-32062244.98111588</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-50433828.86561588</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-51748390.33911588</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-51747140.33911588</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-51814878.72871588</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-51934857.73381588</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-51933407.73381588</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-51952471.30911588</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-51952471.30911588</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-51951223.41721588</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-51949973.19421588</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-45910016.79131588</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-45910016.79131588</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-45910016.79131588</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-45865065.95241588</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-43815190.18221588</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-44829953.83621588</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-54403306.65061588</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-54403306.65061588</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-61856999.46155423</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-77517289.96885423</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-73958027.87235424</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-73958027.87235424</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-71900606.87235424</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-71900606.87235424</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-71911218.75095424</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-71452904.85635425</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-72036299.59935425</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-72034046.69485424</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-106598946.6013542</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-106621821.1197542</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>142414320.5480458</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>116931664.7492458</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>122120825.5479015</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>122120825.5479015</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>122120825.5479015</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>122116464.6342015</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>122161439.2450015</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>122169934.2057015</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>122169934.2057015</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>119857070.0755015</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>119661810.9764015</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>119792486.5651015</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>119792486.5651015</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>119792486.5651015</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>119799677.1923897</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>119013208.3559897</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>119133208.3559897</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>113919005.4028897</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>112170148.7742897</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>106706086.0088897</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>106618780.9260897</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>106606451.9780897</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>106599473.8554897</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
